--- a/src/tests/performance.xlsx
+++ b/src/tests/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="6720" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1d array</t>
   </si>
@@ -41,31 +41,43 @@
     <t>accessor</t>
   </si>
   <si>
-    <t>no func</t>
-  </si>
-  <si>
-    <t>pbv</t>
-  </si>
-  <si>
-    <t>pbv inline</t>
-  </si>
-  <si>
-    <t>pbr</t>
-  </si>
-  <si>
-    <t>pbr inline</t>
-  </si>
-  <si>
-    <t>construct from ptr</t>
-  </si>
-  <si>
-    <t>construct from ptr restrict</t>
-  </si>
-  <si>
-    <t>copy construct</t>
-  </si>
-  <si>
-    <t>copy construct ptr</t>
+    <t>gcc time</t>
+  </si>
+  <si>
+    <t>gcc ratio</t>
+  </si>
+  <si>
+    <t>clang time</t>
+  </si>
+  <si>
+    <t>clang ratio</t>
+  </si>
+  <si>
+    <t>no func call</t>
+  </si>
+  <si>
+    <t>pass by value</t>
+  </si>
+  <si>
+    <t>pass by value inline</t>
+  </si>
+  <si>
+    <t>pass by ref</t>
+  </si>
+  <si>
+    <t>pass by ref inline</t>
+  </si>
+  <si>
+    <t>local construct from ptr</t>
+  </si>
+  <si>
+    <t>local construct from ptr restrict</t>
+  </si>
+  <si>
+    <t>local copy construct</t>
+  </si>
+  <si>
+    <t>local copy construct ptr</t>
   </si>
 </sst>
 </file>
@@ -116,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +139,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M5"/>
+  <dimension ref="A4:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +439,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -436,31 +450,1044 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1.76</v>
+      </c>
+      <c r="C6">
+        <v>1.65</v>
+      </c>
+      <c r="D6">
+        <v>1.988</v>
+      </c>
+      <c r="E6">
+        <v>1.728</v>
+      </c>
+      <c r="F6">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.728</v>
+      </c>
+      <c r="H6">
+        <v>2.488</v>
+      </c>
+      <c r="I6">
+        <v>1.726</v>
+      </c>
+      <c r="J6">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="K6">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="L6">
+        <v>1.649</v>
+      </c>
+      <c r="M6">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.98</v>
+      </c>
+      <c r="E7">
+        <v>1.72</v>
+      </c>
+      <c r="F7">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.72</v>
+      </c>
+      <c r="H7">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1.718</v>
+      </c>
+      <c r="J7">
+        <v>1.72</v>
+      </c>
+      <c r="K7">
+        <v>1.64</v>
+      </c>
+      <c r="L7">
+        <v>1.641</v>
+      </c>
+      <c r="M7">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.649</v>
+      </c>
+      <c r="D8">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.728</v>
+      </c>
+      <c r="H8">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1.73</v>
+      </c>
+      <c r="J8">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.65</v>
+      </c>
+      <c r="L8">
+        <v>1.649</v>
+      </c>
+      <c r="M8">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.984</v>
+      </c>
+      <c r="E9">
+        <v>1.722</v>
+      </c>
+      <c r="F9">
+        <v>1.669</v>
+      </c>
+      <c r="G9">
+        <v>1.742</v>
+      </c>
+      <c r="H9">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="I9">
+        <v>1.722</v>
+      </c>
+      <c r="J9">
+        <v>1.722</v>
+      </c>
+      <c r="K9">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.643</v>
+      </c>
+      <c r="M9">
+        <v>1.6479999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.649</v>
+      </c>
+      <c r="D10">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.726</v>
+      </c>
+      <c r="F10">
+        <v>1.675</v>
+      </c>
+      <c r="G10">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.726</v>
+      </c>
+      <c r="J10">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.649</v>
+      </c>
+      <c r="L10">
+        <v>1.65</v>
+      </c>
+      <c r="M10">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1.641</v>
+      </c>
+      <c r="D11">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.72</v>
+      </c>
+      <c r="F11">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.72</v>
+      </c>
+      <c r="H11">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1.718</v>
+      </c>
+      <c r="J11">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="K11">
+        <v>1.641</v>
+      </c>
+      <c r="L11">
+        <v>1.641</v>
+      </c>
+      <c r="M11">
+        <v>1.6459999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1.76</v>
+      </c>
+      <c r="C12">
+        <v>1.65</v>
+      </c>
+      <c r="D12">
+        <v>1.99</v>
+      </c>
+      <c r="E12">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.728</v>
+      </c>
+      <c r="H12">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="J12">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.649</v>
+      </c>
+      <c r="L12">
+        <v>1.65</v>
+      </c>
+      <c r="M12">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1.754</v>
+      </c>
+      <c r="C13">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.984</v>
+      </c>
+      <c r="E13">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.724</v>
+      </c>
+      <c r="H13">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="I13">
+        <v>1.722</v>
+      </c>
+      <c r="J13">
+        <v>1.722</v>
+      </c>
+      <c r="K13">
+        <v>1.643</v>
+      </c>
+      <c r="L13">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="M13">
+        <v>1.6479999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.986</v>
+      </c>
+      <c r="E14">
+        <v>1.724</v>
+      </c>
+      <c r="F14">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="H14">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="I14">
+        <v>1.722</v>
+      </c>
+      <c r="J14">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.643</v>
+      </c>
+      <c r="L14">
+        <v>1.643</v>
+      </c>
+      <c r="M14">
+        <v>1.647</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1.75</v>
+      </c>
+      <c r="C15">
+        <v>1.641</v>
+      </c>
+      <c r="D15">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.72</v>
+      </c>
+      <c r="F15">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.72</v>
+      </c>
+      <c r="H15">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I15">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="J15">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="K15">
+        <v>1.641</v>
+      </c>
+      <c r="L15">
+        <v>1.641</v>
+      </c>
+      <c r="M15">
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B17" s="4">
+        <f>MIN(B6:B15)</f>
+        <v>1.75</v>
+      </c>
+      <c r="C17" s="4">
+        <f>MIN(C6:C15)</f>
+        <v>1.641</v>
+      </c>
+      <c r="D17" s="4">
+        <f>MIN(D6:D15)</f>
+        <v>1.98</v>
+      </c>
+      <c r="E17" s="4">
+        <f>MIN(E6:E15)</f>
+        <v>1.72</v>
+      </c>
+      <c r="F17" s="4">
+        <f>MIN(F6:F15)</f>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <f>MIN(G6:G15)</f>
+        <v>1.72</v>
+      </c>
+      <c r="H17" s="4">
+        <f>MIN(H6:H15)</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <f>MIN(I6:I15)</f>
+        <v>1.718</v>
+      </c>
+      <c r="J17" s="4">
+        <f>MIN(J6:J15)</f>
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <f>MIN(K6:K15)</f>
+        <v>1.64</v>
+      </c>
+      <c r="L17" s="4">
+        <f>MIN(L6:L15)</f>
+        <v>1.641</v>
+      </c>
+      <c r="M17" s="4">
+        <f>MIN(M6:M15)</f>
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="B18" s="5">
+        <f>B17/$C17</f>
+        <v>1.0664229128580134</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C17/$C17</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <f>D17/$C17</f>
+        <v>1.206581352833638</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E17/$C17</f>
+        <v>1.0481413772090189</v>
+      </c>
+      <c r="F18" s="5">
+        <f>F17/$C17</f>
+        <v>1.0152346130408287</v>
+      </c>
+      <c r="G18" s="5">
+        <f>G17/$C17</f>
+        <v>1.0481413772090189</v>
+      </c>
+      <c r="H18" s="5">
+        <f>H17/$C17</f>
+        <v>1.5082266910420477</v>
+      </c>
+      <c r="I18" s="5">
+        <f>I17/$C17</f>
+        <v>1.0469226081657526</v>
+      </c>
+      <c r="J18" s="5">
+        <f>J17/$C17</f>
+        <v>1.0475319926873858</v>
+      </c>
+      <c r="K18" s="5">
+        <f>K17/$C17</f>
+        <v>0.99939061547836683</v>
+      </c>
+      <c r="L18" s="5">
+        <f>L17/$C17</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <f>M17/$C17</f>
+        <v>1.0018281535648994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.611</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.621</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>1.657</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.831</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.595</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.597</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1.643</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>1.665</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.839</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.601</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>1.651</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.827</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.589</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.593</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.556</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.593</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1.639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.837</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>1.657</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.831</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.595</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.589</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.643</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4">
+        <v>1.661</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.603</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1.6559999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.595</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.556</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>1.663</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.839</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.611</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1.655</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.6539999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
+        <v>1.659</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.593</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.601</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.597</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1.641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="B31" s="4">
+        <f>MIN(B20:B29)</f>
+        <v>1.651</v>
+      </c>
+      <c r="C31" s="4">
+        <f>MIN(C20:C29)</f>
+        <v>1.827</v>
+      </c>
+      <c r="D31" s="4">
+        <f>MIN(D20:D29)</f>
+        <v>1.59</v>
+      </c>
+      <c r="E31" s="4">
+        <f>MIN(E20:E29)</f>
+        <v>1.599</v>
+      </c>
+      <c r="F31" s="4">
+        <f>MIN(F20:F29)</f>
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="G31" s="4">
+        <f>MIN(G20:G29)</f>
+        <v>1.593</v>
+      </c>
+      <c r="H31" s="4">
+        <f>MIN(H20:H29)</f>
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="I31" s="4">
+        <f>MIN(I20:I29)</f>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <f>MIN(J20:J29)</f>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="K31" s="4">
+        <f>MIN(K20:K29)</f>
+        <v>1.593</v>
+      </c>
+      <c r="L31" s="4">
+        <f>MIN(L20:L29)</f>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="M31" s="4">
+        <f>MIN(M20:M29)</f>
+        <v>1.639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>12</v>
+      <c r="B32" s="5">
+        <f>B31/$C31</f>
+        <v>0.90366721401204164</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C31/$C31</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <f>D31/$C31</f>
+        <v>0.87027914614121515</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E31/$C31</f>
+        <v>0.87520525451559938</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F31/$C31</f>
+        <v>1.4165298303229339</v>
+      </c>
+      <c r="G32" s="5">
+        <f>G31/$C31</f>
+        <v>0.8719211822660099</v>
+      </c>
+      <c r="H32" s="5">
+        <f>H31/$C31</f>
+        <v>1.3984674329501916</v>
+      </c>
+      <c r="I32" s="5">
+        <f>I31/$C31</f>
+        <v>0.87246852764094152</v>
+      </c>
+      <c r="J32" s="5">
+        <f>J31/$C31</f>
+        <v>0.87246852764094152</v>
+      </c>
+      <c r="K32" s="5">
+        <f>K31/$C31</f>
+        <v>0.8719211822660099</v>
+      </c>
+      <c r="L32" s="5">
+        <f>L31/$C31</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="M32" s="5">
+        <f>M31/$C31</f>
+        <v>0.89709906951286267</v>
       </c>
     </row>
   </sheetData>

--- a/src/tests/performance.xlsx
+++ b/src/tests/performance.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rrsettgast/Codes/geosx/cxx-utilities/src/tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6720" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -84,10 +79,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,9 +135,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,13 +164,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -198,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -233,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,19 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M32"/>
+  <dimension ref="B4:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I60" sqref="G60:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="2:14">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -438,1059 +469,2052 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="60">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="2:14" hidden="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>1.76</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>1.65</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="3">
         <v>1.988</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="3">
         <v>1.728</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="3">
         <v>1.6739999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="3">
         <v>1.728</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="3">
         <v>2.488</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="3">
         <v>1.726</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="3">
         <v>1.6479999999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="3">
         <v>1.649</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="3">
         <v>1.653</v>
       </c>
     </row>
-    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="7" spans="2:14" hidden="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>1.7509999999999999</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="3">
         <v>1.6419999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="3">
         <v>1.98</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="3">
         <v>1.72</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="3">
         <v>1.6659999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="3">
         <v>1.72</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="3">
         <v>2.4809999999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="3">
         <v>1.718</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="3">
         <v>1.72</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="3">
         <v>1.64</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="3">
         <v>1.641</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="3">
         <v>1.645</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="8" spans="2:14" hidden="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>1.7589999999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="3">
         <v>1.649</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="3">
         <v>1.9890000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="3">
         <v>1.6739999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="3">
         <v>1.728</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="3">
         <v>2.4870000000000001</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="3">
         <v>1.73</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="3">
         <v>1.7290000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="3">
         <v>1.65</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="3">
         <v>1.649</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="3">
         <v>1.653</v>
       </c>
     </row>
-    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="9" spans="2:14" hidden="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>1.7549999999999999</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="3">
         <v>1.984</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="3">
         <v>1.722</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>1.669</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="3">
         <v>1.742</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="3">
         <v>2.4860000000000002</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="3">
         <v>1.722</v>
       </c>
-      <c r="J9">
+      <c r="K9" s="3">
         <v>1.722</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="3">
         <v>1.643</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="3">
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:14" hidden="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>1.7589999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="3">
         <v>1.649</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="3">
         <v>1.9890000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="3">
         <v>1.726</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="3">
         <v>1.675</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="3">
         <v>2.4910000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="3">
         <v>1.726</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="3">
         <v>1.649</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="3">
         <v>1.65</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="3">
         <v>1.653</v>
       </c>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="11" spans="2:14" hidden="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>1.7509999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="3">
         <v>1.641</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="3">
         <v>1.9810000000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="3">
         <v>1.72</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="3">
         <v>1.6659999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="3">
         <v>1.72</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="3">
         <v>2.4790000000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="3">
         <v>1.718</v>
       </c>
-      <c r="J11">
+      <c r="K11" s="3">
         <v>1.7210000000000001</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="3">
         <v>1.641</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="3">
         <v>1.641</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="3">
         <v>1.6459999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="12" spans="2:14" hidden="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>1.76</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="3">
         <v>1.65</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="3">
         <v>1.99</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="3">
         <v>1.6739999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="3">
         <v>1.728</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="3">
         <v>2.4889999999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="3">
         <v>1.7270000000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="3">
         <v>1.649</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="3">
         <v>1.65</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="3">
         <v>1.655</v>
       </c>
     </row>
-    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="2:14" hidden="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>1.754</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="3">
         <v>1.984</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="3">
         <v>1.7230000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="3">
         <v>1.6679999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="3">
         <v>1.724</v>
       </c>
-      <c r="H13">
+      <c r="I13" s="3">
         <v>2.4860000000000002</v>
       </c>
-      <c r="I13">
+      <c r="J13" s="3">
         <v>1.722</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="3">
         <v>1.722</v>
       </c>
-      <c r="K13">
+      <c r="L13" s="3">
         <v>1.643</v>
       </c>
-      <c r="L13">
+      <c r="M13" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="M13">
+      <c r="N13" s="3">
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="2:14" hidden="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>1.7569999999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="3">
         <v>1.986</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="3">
         <v>1.724</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="3">
         <v>1.6759999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="3">
         <v>1.7250000000000001</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="3">
         <v>2.4889999999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="3">
         <v>1.722</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="3">
         <v>1.7230000000000001</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="3">
         <v>1.643</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="3">
         <v>1.643</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="3">
         <v>1.647</v>
       </c>
     </row>
-    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="15" spans="2:14" hidden="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>1.75</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="3">
         <v>1.641</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="3">
         <v>1.9810000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="3">
         <v>1.72</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="3">
         <v>1.6659999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="3">
         <v>1.72</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="3">
         <v>2.4750000000000001</v>
       </c>
-      <c r="I15">
+      <c r="J15" s="3">
         <v>1.7190000000000001</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="3">
         <v>1.7190000000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="3">
         <v>1.641</v>
       </c>
-      <c r="L15">
+      <c r="M15" s="3">
         <v>1.641</v>
       </c>
-      <c r="M15">
+      <c r="N15" s="3">
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="2:14" hidden="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
-        <f>MIN(B6:B15)</f>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:N17" si="0">MIN(C6:C15)</f>
         <v>1.75</v>
       </c>
-      <c r="C17" s="4">
-        <f>MIN(C6:C15)</f>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
         <v>1.641</v>
       </c>
-      <c r="D17" s="4">
-        <f>MIN(D6:D15)</f>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
-      <c r="E17" s="4">
-        <f>MIN(E6:E15)</f>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
-      <c r="F17" s="4">
-        <f>MIN(F6:F15)</f>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
         <v>1.6659999999999999</v>
       </c>
-      <c r="G17" s="4">
-        <f>MIN(G6:G15)</f>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
-      <c r="H17" s="4">
-        <f>MIN(H6:H15)</f>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="I17" s="4">
-        <f>MIN(I6:I15)</f>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
         <v>1.718</v>
       </c>
-      <c r="J17" s="4">
-        <f>MIN(J6:J15)</f>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
         <v>1.7190000000000001</v>
       </c>
-      <c r="K17" s="4">
-        <f>MIN(K6:K15)</f>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="L17" s="4">
-        <f>MIN(L6:L15)</f>
+      <c r="M17" s="3">
+        <f t="shared" si="0"/>
         <v>1.641</v>
       </c>
-      <c r="M17" s="4">
-        <f>MIN(M6:M15)</f>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="2:14">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
-        <f>B17/$C17</f>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:N18" si="1">C17/$D17</f>
         <v>1.0664229128580134</v>
       </c>
-      <c r="C18" s="5">
-        <f>C17/$C17</f>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D18" s="5">
-        <f>D17/$C17</f>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
         <v>1.206581352833638</v>
       </c>
-      <c r="E18" s="5">
-        <f>E17/$C17</f>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0481413772090189</v>
       </c>
-      <c r="F18" s="5">
-        <f>F17/$C17</f>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0152346130408287</v>
       </c>
-      <c r="G18" s="5">
-        <f>G17/$C17</f>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0481413772090189</v>
       </c>
-      <c r="H18" s="5">
-        <f>H17/$C17</f>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
         <v>1.5082266910420477</v>
       </c>
-      <c r="I18" s="5">
-        <f>I17/$C17</f>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0469226081657526</v>
       </c>
-      <c r="J18" s="5">
-        <f>J17/$C17</f>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0475319926873858</v>
       </c>
-      <c r="K18" s="5">
-        <f>K17/$C17</f>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
         <v>0.99939061547836683</v>
       </c>
-      <c r="L18" s="5">
-        <f>L17/$C17</f>
+      <c r="M18" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M18" s="5">
-        <f>M17/$C17</f>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
         <v>1.0018281535648994</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
+    <row r="19" spans="2:14">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" hidden="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>1.6619999999999999</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="3">
         <v>1.8380000000000001</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="3">
         <v>1.6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="3">
         <v>1.611</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="3">
         <v>2.5950000000000002</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="3">
         <v>2.5649999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="3">
         <v>1.621</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="3">
         <v>1.605</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="3">
         <v>1.6479999999999999</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="3">
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="2:14" hidden="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
         <v>1.657</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="3">
         <v>1.831</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="3">
         <v>1.595</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="3">
         <v>1.605</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="3">
         <v>2.597</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="3">
         <v>1.5980000000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="3">
         <v>2.56</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="3">
         <v>1.6</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="3">
         <v>1.5980000000000001</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="3">
         <v>1.599</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="3">
         <v>1.643</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="3">
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
+    <row r="22" spans="2:14" hidden="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>1.665</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="3">
         <v>1.839</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="3">
         <v>1.601</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="3">
         <v>1.61</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="3">
         <v>2.6</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="3">
         <v>1.605</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="3">
         <v>2.5670000000000002</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="3">
         <v>1.6060000000000001</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="3">
         <v>1.605</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="3">
         <v>1.605</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="3">
         <v>1.6479999999999999</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="3">
         <v>1.651</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+    <row r="23" spans="2:14" hidden="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>1.651</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="3">
         <v>1.827</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="3">
         <v>1.59</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="3">
         <v>1.599</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="3">
         <v>2.589</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="3">
         <v>1.593</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="3">
         <v>2.556</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="3">
         <v>1.5940000000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="3">
         <v>1.5940000000000001</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="3">
         <v>1.593</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="3">
         <v>1.6379999999999999</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="3">
         <v>1.639</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
+    <row r="24" spans="2:14" hidden="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>1.6619999999999999</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="3">
         <v>1.837</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="3">
         <v>1.6</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="3">
         <v>1.61</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="3">
         <v>2.5990000000000002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="3">
         <v>1.605</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="3">
         <v>2.5630000000000002</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="3">
         <v>1.6060000000000001</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="3">
         <v>1.6479999999999999</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="3">
         <v>1.65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4">
+    <row r="25" spans="2:14" hidden="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
         <v>1.657</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="3">
         <v>1.831</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="3">
         <v>1.595</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="3">
         <v>2.589</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="3">
         <v>1.5980000000000001</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="3">
         <v>2.56</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="3">
         <v>1.599</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="3">
         <v>1.599</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="3">
         <v>1.5980000000000001</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="3">
         <v>1.643</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="3">
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4">
+    <row r="26" spans="2:14" hidden="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
         <v>1.661</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="3">
         <v>1.8380000000000001</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="3">
         <v>1.6</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="3">
         <v>1.62</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="3">
         <v>2.6070000000000002</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="3">
         <v>1.605</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="3">
         <v>2.5670000000000002</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="3">
         <v>1.6060000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="3">
         <v>1.603</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="3">
         <v>1.6479999999999999</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="3">
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4">
+    <row r="27" spans="2:14" hidden="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
         <v>1.6559999999999999</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="3">
         <v>1.8320000000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="3">
         <v>1.595</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="3">
         <v>2.5920000000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="3">
         <v>1.599</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="3">
         <v>2.556</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="3">
         <v>1.6</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="3">
         <v>1.5980000000000001</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="3">
         <v>1.599</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="3">
         <v>1.6419999999999999</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="3">
         <v>1.645</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4">
+    <row r="28" spans="2:14" hidden="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
         <v>1.663</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="3">
         <v>1.839</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="3">
         <v>1.6</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="3">
         <v>1.611</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="3">
         <v>2.5979999999999999</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="3">
         <v>1.605</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="3">
         <v>2.5619999999999998</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="3">
         <v>1.605</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="3">
         <v>1.605</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="3">
         <v>1.605</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="3">
         <v>1.655</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="3">
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4">
+    <row r="29" spans="2:14" hidden="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <v>1.659</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="3">
         <v>1.83</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="3">
         <v>1.593</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="3">
         <v>1.601</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="3">
         <v>2.5880000000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="3">
         <v>1.5960000000000001</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="3">
         <v>2.5550000000000002</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="3">
         <v>1.597</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="3">
         <v>1.5960000000000001</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="3">
         <v>1.5960000000000001</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="3">
         <v>1.64</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="3">
         <v>1.641</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="30" spans="2:14" hidden="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="4">
-        <f>MIN(B20:B29)</f>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:N31" si="2">MIN(C20:C29)</f>
         <v>1.651</v>
       </c>
-      <c r="C31" s="4">
-        <f>MIN(C20:C29)</f>
+      <c r="D31" s="3">
+        <f t="shared" si="2"/>
         <v>1.827</v>
       </c>
-      <c r="D31" s="4">
-        <f>MIN(D20:D29)</f>
+      <c r="E31" s="3">
+        <f t="shared" si="2"/>
         <v>1.59</v>
       </c>
-      <c r="E31" s="4">
-        <f>MIN(E20:E29)</f>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
         <v>1.599</v>
       </c>
-      <c r="F31" s="4">
-        <f>MIN(F20:F29)</f>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
         <v>2.5880000000000001</v>
       </c>
-      <c r="G31" s="4">
-        <f>MIN(G20:G29)</f>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
         <v>1.593</v>
       </c>
-      <c r="H31" s="4">
-        <f>MIN(H20:H29)</f>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
         <v>2.5550000000000002</v>
       </c>
-      <c r="I31" s="4">
-        <f>MIN(I20:I29)</f>
+      <c r="J31" s="3">
+        <f t="shared" si="2"/>
         <v>1.5940000000000001</v>
       </c>
-      <c r="J31" s="4">
-        <f>MIN(J20:J29)</f>
+      <c r="K31" s="3">
+        <f t="shared" si="2"/>
         <v>1.5940000000000001</v>
       </c>
-      <c r="K31" s="4">
-        <f>MIN(K20:K29)</f>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
         <v>1.593</v>
       </c>
-      <c r="L31" s="4">
-        <f>MIN(L20:L29)</f>
+      <c r="M31" s="3">
+        <f t="shared" si="2"/>
         <v>1.6379999999999999</v>
       </c>
-      <c r="M31" s="4">
-        <f>MIN(M20:M29)</f>
+      <c r="N31" s="3">
+        <f t="shared" si="2"/>
         <v>1.639</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="2:14">
+      <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5">
-        <f>B31/$C31</f>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:N32" si="3">C31/$D31</f>
         <v>0.90366721401204164</v>
       </c>
-      <c r="C32" s="5">
-        <f>C31/$C31</f>
+      <c r="D32" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D32" s="5">
-        <f>D31/$C31</f>
+      <c r="E32" s="4">
+        <f t="shared" si="3"/>
         <v>0.87027914614121515</v>
       </c>
-      <c r="E32" s="5">
-        <f>E31/$C31</f>
+      <c r="F32" s="4">
+        <f t="shared" si="3"/>
         <v>0.87520525451559938</v>
       </c>
-      <c r="F32" s="5">
-        <f>F31/$C31</f>
+      <c r="G32" s="4">
+        <f t="shared" si="3"/>
         <v>1.4165298303229339</v>
       </c>
-      <c r="G32" s="5">
-        <f>G31/$C31</f>
+      <c r="H32" s="4">
+        <f t="shared" si="3"/>
         <v>0.8719211822660099</v>
       </c>
-      <c r="H32" s="5">
-        <f>H31/$C31</f>
+      <c r="I32" s="4">
+        <f t="shared" si="3"/>
         <v>1.3984674329501916</v>
       </c>
-      <c r="I32" s="5">
-        <f>I31/$C31</f>
+      <c r="J32" s="4">
+        <f t="shared" si="3"/>
         <v>0.87246852764094152</v>
       </c>
-      <c r="J32" s="5">
-        <f>J31/$C31</f>
+      <c r="K32" s="4">
+        <f t="shared" si="3"/>
         <v>0.87246852764094152</v>
       </c>
-      <c r="K32" s="5">
-        <f>K31/$C31</f>
+      <c r="L32" s="4">
+        <f t="shared" si="3"/>
         <v>0.8719211822660099</v>
       </c>
-      <c r="L32" s="5">
-        <f>L31/$C31</f>
+      <c r="M32" s="4">
+        <f t="shared" si="3"/>
         <v>0.89655172413793105</v>
       </c>
-      <c r="M32" s="5">
-        <f>M31/$C31</f>
+      <c r="N32" s="4">
+        <f t="shared" si="3"/>
         <v>0.89709906951286267</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" hidden="1">
+      <c r="C34">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.649</v>
+      </c>
+      <c r="E34">
+        <v>1.988</v>
+      </c>
+      <c r="F34">
+        <v>1.77</v>
+      </c>
+      <c r="G34">
+        <v>1.784</v>
+      </c>
+      <c r="H34">
+        <v>1.772</v>
+      </c>
+      <c r="I34">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="J34">
+        <v>1.774</v>
+      </c>
+      <c r="K34">
+        <v>1.73</v>
+      </c>
+      <c r="L34">
+        <v>1.649</v>
+      </c>
+      <c r="M34">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="N34">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" hidden="1">
+      <c r="C35">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="D35">
+        <v>1.64</v>
+      </c>
+      <c r="E35">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="F35">
+        <v>1.762</v>
+      </c>
+      <c r="G35">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="H35">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="I35">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="J35">
+        <v>1.766</v>
+      </c>
+      <c r="K35">
+        <v>1.724</v>
+      </c>
+      <c r="L35">
+        <v>1.641</v>
+      </c>
+      <c r="M35">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" hidden="1">
+      <c r="C36">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D36">
+        <v>1.647</v>
+      </c>
+      <c r="E36">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="F36">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="G36">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="H36">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="I36">
+        <v>1.782</v>
+      </c>
+      <c r="J36">
+        <v>1.772</v>
+      </c>
+      <c r="K36">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="L36">
+        <v>1.645</v>
+      </c>
+      <c r="M36">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="N36">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" hidden="1">
+      <c r="C37">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D37">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E37">
+        <v>1.988</v>
+      </c>
+      <c r="F37">
+        <v>1.77</v>
+      </c>
+      <c r="G37">
+        <v>1.784</v>
+      </c>
+      <c r="H37">
+        <v>1.772</v>
+      </c>
+      <c r="I37">
+        <v>1.784</v>
+      </c>
+      <c r="J37">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="K37">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L37">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M37">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="N37">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" hidden="1">
+      <c r="C38">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1.649</v>
+      </c>
+      <c r="E38">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="F38">
+        <v>1.77</v>
+      </c>
+      <c r="G38">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H38">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="I38">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="J38">
+        <v>1.774</v>
+      </c>
+      <c r="K38">
+        <v>1.732</v>
+      </c>
+      <c r="L38">
+        <v>1.649</v>
+      </c>
+      <c r="M38">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="N38">
+        <v>1.732</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" hidden="1">
+      <c r="C39">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D39">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E39">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="G39">
+        <v>1.784</v>
+      </c>
+      <c r="H39">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.784</v>
+      </c>
+      <c r="J39">
+        <v>1.774</v>
+      </c>
+      <c r="K39">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L39">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M39">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="N39">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" hidden="1">
+      <c r="C40">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E40">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="F40">
+        <v>1.77</v>
+      </c>
+      <c r="G40">
+        <v>1.784</v>
+      </c>
+      <c r="H40">
+        <v>1.774</v>
+      </c>
+      <c r="I40">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="J40">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="K40">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L40">
+        <v>1.649</v>
+      </c>
+      <c r="M40">
+        <v>1.774</v>
+      </c>
+      <c r="N40">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" hidden="1">
+      <c r="C41">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D41">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E41">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="F41">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="G41">
+        <v>1.784</v>
+      </c>
+      <c r="H41">
+        <v>1.772</v>
+      </c>
+      <c r="I41">
+        <v>1.784</v>
+      </c>
+      <c r="J41">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L41">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="M41">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="N41">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" hidden="1">
+      <c r="C42">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="F42">
+        <v>1.77</v>
+      </c>
+      <c r="G42">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H42">
+        <v>1.774</v>
+      </c>
+      <c r="I42">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="J42">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="K42">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L42">
+        <v>1.65</v>
+      </c>
+      <c r="M42">
+        <v>1.772</v>
+      </c>
+      <c r="N42">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" hidden="1">
+      <c r="C43">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D43">
+        <v>1.649</v>
+      </c>
+      <c r="E43">
+        <v>1.988</v>
+      </c>
+      <c r="F43">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="G43">
+        <v>1.784</v>
+      </c>
+      <c r="H43">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="I43">
+        <v>1.784</v>
+      </c>
+      <c r="J43">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="K43">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="L43">
+        <v>1.649</v>
+      </c>
+      <c r="M43">
+        <v>1.772</v>
+      </c>
+      <c r="N43">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" hidden="1"/>
+    <row r="45" spans="3:14">
+      <c r="C45" s="3">
+        <f t="shared" ref="C45:N45" si="4">MIN(C34:C43)</f>
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.762</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.766</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.724</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.641</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="4">
+        <f t="shared" ref="C46" si="5">C45/$D45</f>
+        <v>1.0701219512195121</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46" si="6">D45/$D45</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" ref="E46" si="7">E45/$D45</f>
+        <v>1.2079268292682928</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" ref="F46" si="8">F45/$D45</f>
+        <v>1.0743902439024391</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" ref="G46" si="9">G45/$D45</f>
+        <v>1.0835365853658536</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" ref="H46" si="10">H45/$D45</f>
+        <v>1.0762195121951219</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" ref="I46" si="11">I45/$D45</f>
+        <v>1.0835365853658536</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" ref="J46" si="12">J45/$D45</f>
+        <v>1.076829268292683</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" ref="K46" si="13">K45/$D45</f>
+        <v>1.051219512195122</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" ref="L46" si="14">L45/$D45</f>
+        <v>1.0006097560975611</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46" si="15">M45/$D45</f>
+        <v>1.0762195121951219</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" ref="N46" si="16">N45/$D45</f>
+        <v>1.0506097560975611</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" hidden="1">
+      <c r="C48">
+        <v>1.663</v>
+      </c>
+      <c r="D48">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E48">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="F48">
+        <v>1.61</v>
+      </c>
+      <c r="G48">
+        <v>1.681</v>
+      </c>
+      <c r="H48">
+        <v>1.605</v>
+      </c>
+      <c r="I48">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="J48">
+        <v>1.605</v>
+      </c>
+      <c r="K48">
+        <v>1.649</v>
+      </c>
+      <c r="L48">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="M48">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="N48">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" hidden="1">
+      <c r="C49">
+        <v>1.665</v>
+      </c>
+      <c r="D49">
+        <v>1.839</v>
+      </c>
+      <c r="E49">
+        <v>1.603</v>
+      </c>
+      <c r="F49">
+        <v>1.61</v>
+      </c>
+      <c r="G49">
+        <v>1.68</v>
+      </c>
+      <c r="H49">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I49">
+        <v>1.67</v>
+      </c>
+      <c r="J49">
+        <v>1.605</v>
+      </c>
+      <c r="K49">
+        <v>1.65</v>
+      </c>
+      <c r="L49">
+        <v>1.607</v>
+      </c>
+      <c r="M49">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="N49">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" hidden="1">
+      <c r="C50">
+        <v>1.663</v>
+      </c>
+      <c r="D50">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E50">
+        <v>1.603</v>
+      </c>
+      <c r="F50">
+        <v>1.61</v>
+      </c>
+      <c r="G50">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H50">
+        <v>1.605</v>
+      </c>
+      <c r="I50">
+        <v>1.661</v>
+      </c>
+      <c r="J50">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="K50">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="L50">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="M50">
+        <v>1.669</v>
+      </c>
+      <c r="N50">
+        <v>1.6419999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" hidden="1">
+      <c r="C51">
+        <v>1.663</v>
+      </c>
+      <c r="D51">
+        <v>1.839</v>
+      </c>
+      <c r="E51">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="F51">
+        <v>1.611</v>
+      </c>
+      <c r="G51">
+        <v>1.681</v>
+      </c>
+      <c r="H51">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I51">
+        <v>1.669</v>
+      </c>
+      <c r="J51">
+        <v>1.605</v>
+      </c>
+      <c r="K51">
+        <v>1.65</v>
+      </c>
+      <c r="L51">
+        <v>1.607</v>
+      </c>
+      <c r="M51">
+        <v>1.677</v>
+      </c>
+      <c r="N51">
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" hidden="1">
+      <c r="C52">
+        <v>1.663</v>
+      </c>
+      <c r="D52">
+        <v>1.837</v>
+      </c>
+      <c r="E52">
+        <v>1.61</v>
+      </c>
+      <c r="F52">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="G52">
+        <v>1.681</v>
+      </c>
+      <c r="H52">
+        <v>1.611</v>
+      </c>
+      <c r="I52">
+        <v>1.669</v>
+      </c>
+      <c r="J52">
+        <v>1.611</v>
+      </c>
+      <c r="K52">
+        <v>1.649</v>
+      </c>
+      <c r="L52">
+        <v>1.613</v>
+      </c>
+      <c r="M52">
+        <v>1.675</v>
+      </c>
+      <c r="N52">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" hidden="1">
+      <c r="C53">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1.839</v>
+      </c>
+      <c r="E53">
+        <v>1.603</v>
+      </c>
+      <c r="F53">
+        <v>1.61</v>
+      </c>
+      <c r="G53">
+        <v>1.681</v>
+      </c>
+      <c r="H53">
+        <v>1.605</v>
+      </c>
+      <c r="I53">
+        <v>1.67</v>
+      </c>
+      <c r="J53">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="K53">
+        <v>1.651</v>
+      </c>
+      <c r="L53">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="M53">
+        <v>1.677</v>
+      </c>
+      <c r="N53">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" hidden="1">
+      <c r="C54">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E54">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="F54">
+        <v>1.61</v>
+      </c>
+      <c r="G54">
+        <v>1.681</v>
+      </c>
+      <c r="H54">
+        <v>1.605</v>
+      </c>
+      <c r="I54">
+        <v>1.669</v>
+      </c>
+      <c r="J54">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="K54">
+        <v>1.65</v>
+      </c>
+      <c r="L54">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="M54">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="N54">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" hidden="1">
+      <c r="C55">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.839</v>
+      </c>
+      <c r="E55">
+        <v>1.609</v>
+      </c>
+      <c r="F55">
+        <v>1.617</v>
+      </c>
+      <c r="G55">
+        <v>1.681</v>
+      </c>
+      <c r="H55">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="I55">
+        <v>1.67</v>
+      </c>
+      <c r="J55">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="K55">
+        <v>1.65</v>
+      </c>
+      <c r="L55">
+        <v>1.613</v>
+      </c>
+      <c r="M55">
+        <v>1.677</v>
+      </c>
+      <c r="N55">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" hidden="1">
+      <c r="C56">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="D56">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="E56">
+        <v>1.603</v>
+      </c>
+      <c r="F56">
+        <v>1.61</v>
+      </c>
+      <c r="G56">
+        <v>1.68</v>
+      </c>
+      <c r="H56">
+        <v>1.605</v>
+      </c>
+      <c r="I56">
+        <v>1.669</v>
+      </c>
+      <c r="J56">
+        <v>1.605</v>
+      </c>
+      <c r="K56">
+        <v>1.649</v>
+      </c>
+      <c r="L56">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="M56">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="N56">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" hidden="1">
+      <c r="C57">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="D57">
+        <v>1.84</v>
+      </c>
+      <c r="E57">
+        <v>1.603</v>
+      </c>
+      <c r="F57">
+        <v>1.611</v>
+      </c>
+      <c r="G57">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="H57">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I57">
+        <v>1.67</v>
+      </c>
+      <c r="J57">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="K57">
+        <v>1.651</v>
+      </c>
+      <c r="L57">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="M57">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="N57">
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" hidden="1"/>
+    <row r="59" spans="3:14">
+      <c r="C59" s="3">
+        <f t="shared" ref="C59:N59" si="17">MIN(C48:C57)</f>
+        <v>1.663</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.837</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.61</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.68</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.605</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.661</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.669</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6419999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="4">
+        <f t="shared" ref="C60" si="18">C59/$D59</f>
+        <v>0.90528034839412086</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" ref="D60" si="19">D59/$D59</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" ref="E60" si="20">E59/$D59</f>
+        <v>0.87207403375068049</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" ref="F60" si="21">F59/$D59</f>
+        <v>0.87642896026129569</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" ref="G60" si="22">G59/$D59</f>
+        <v>0.91453456722917803</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" ref="H60" si="23">H59/$D59</f>
+        <v>0.87370713119216115</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" ref="I60" si="24">I59/$D59</f>
+        <v>0.90419161676646709</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" ref="J60" si="25">J59/$D59</f>
+        <v>0.86989657049537294</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" ref="K60" si="26">K59/$D59</f>
+        <v>0.89384866630375603</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" ref="L60" si="27">L59/$D59</f>
+        <v>0.86989657049537294</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" ref="M60" si="28">M59/$D59</f>
+        <v>0.90854654327708229</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" ref="N60" si="29">N59/$D59</f>
+        <v>0.89384866630375603</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>